--- a/biology/Botanique/Céraiste_des_champs/Céraiste_des_champs.xlsx
+++ b/biology/Botanique/Céraiste_des_champs/Céraiste_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9raiste_des_champs</t>
+          <t>Céraiste_des_champs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerastium arvense
 Le Céraiste des champs (Cerastium arvense L.) est une petite plante herbacée appartenant au genre Cerastium et à la famille des Caryophyllacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9raiste_des_champs</t>
+          <t>Céraiste_des_champs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs blanches du céraiste des champs comptent cinq pétales à deux lobes, en forme de cœur allongé ; les pétales sont 2 fois plus longs que les sépales.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9raiste_des_champs</t>
+          <t>Céraiste_des_champs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après un arrêté du 23 juillet 1987, le Céraiste des champs (Cerastium arvense L.) est une espèce protégée en Bretagne ; il est ainsi interdit de la détruire, la couper, la mutiler, l'arracher, la cueillir ou l'enlever, la transporter, la colporter, l'utiliser, la vendre ou l'acheter[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après un arrêté du 23 juillet 1987, le Céraiste des champs (Cerastium arvense L.) est une espèce protégée en Bretagne ; il est ainsi interdit de la détruire, la couper, la mutiler, l'arracher, la cueillir ou l'enlever, la transporter, la colporter, l'utiliser, la vendre ou l'acheter.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9raiste_des_champs</t>
+          <t>Céraiste_des_champs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cerastium arvense subsp. arvense : Céraiste des champs
 Cerastium arvense subsp. strictum : Céraiste raide
